--- a/logs/ransomware_analysis_20250503_012207.xlsx
+++ b/logs/ransomware_analysis_20250503_012207.xlsx
@@ -1,38 +1,190 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohab\Desktop\Uni\Courses\Year 4 - 2nd term\Security\notRansomWare\logs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551CC138-53F2-4D71-84DD-EE9BC3347713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38310" windowHeight="15075" tabRatio="166" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Analysis Flags" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Detection Counts" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Analysis Flags" sheetId="1" r:id="rId1"/>
+    <sheet name="Detection Counts" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Is Ransomware</t>
+  </si>
+  <si>
+    <t>has_suspicious_sections</t>
+  </si>
+  <si>
+    <t>has_high_entropy</t>
+  </si>
+  <si>
+    <t>has_suspicious_imports</t>
+  </si>
+  <si>
+    <t>has_large_code_section</t>
+  </si>
+  <si>
+    <t>has_ransom_strings</t>
+  </si>
+  <si>
+    <t>no_digital_signature</t>
+  </si>
+  <si>
+    <t>uses_encryption_apis</t>
+  </si>
+  <si>
+    <t>uses_other_apis</t>
+  </si>
+  <si>
+    <t>uses_crypto_dlls</t>
+  </si>
+  <si>
+    <t>uses_file_system_dlls</t>
+  </si>
+  <si>
+    <t>uses_internet_dlls</t>
+  </si>
+  <si>
+    <t>has_hardcoded_ips</t>
+  </si>
+  <si>
+    <t>has_hardcoded_urls</t>
+  </si>
+  <si>
+    <t>has_crypto_constants</t>
+  </si>
+  <si>
+    <t>has_hardcoded_commands</t>
+  </si>
+  <si>
+    <t>has_hardcoded_paths</t>
+  </si>
+  <si>
+    <t>uses_internet_access_functions</t>
+  </si>
+  <si>
+    <t>uses_file_operations_functions</t>
+  </si>
+  <si>
+    <t>uses_process_operations_functions</t>
+  </si>
+  <si>
+    <t>uses_anti_debugging_functions</t>
+  </si>
+  <si>
+    <t>uses_service_operations_functions</t>
+  </si>
+  <si>
+    <t>certificate.exe</t>
+  </si>
+  <si>
+    <t>notepad.exe</t>
+  </si>
+  <si>
+    <t>putty.exe</t>
+  </si>
+  <si>
+    <t>test.exe</t>
+  </si>
+  <si>
+    <t>ransom_words</t>
+  </si>
+  <si>
+    <t>encryption_apis</t>
+  </si>
+  <si>
+    <t>other_apis</t>
+  </si>
+  <si>
+    <t>crypto_dlls</t>
+  </si>
+  <si>
+    <t>file_system_dlls</t>
+  </si>
+  <si>
+    <t>internet_dlls</t>
+  </si>
+  <si>
+    <t>hardcoded_ips</t>
+  </si>
+  <si>
+    <t>hardcoded_urls</t>
+  </si>
+  <si>
+    <t>rsa_keys</t>
+  </si>
+  <si>
+    <t>aes_constants</t>
+  </si>
+  <si>
+    <t>hardcoded_commands</t>
+  </si>
+  <si>
+    <t>hardcoded_paths</t>
+  </si>
+  <si>
+    <t>internet_access_functions</t>
+  </si>
+  <si>
+    <t>file_operations_functions</t>
+  </si>
+  <si>
+    <t>process_operations_functions</t>
+  </si>
+  <si>
+    <t>anti_debugging_functions</t>
+  </si>
+  <si>
+    <t>service_operations_functions</t>
+  </si>
+  <si>
+    <t>ransom.exe</t>
+  </si>
+  <si>
+    <t>not_ransom.exe</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,93 +199,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,174 +523,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:X5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:X10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
-    <col width="24" customWidth="1" min="7" max="7"/>
-    <col width="20" customWidth="1" min="8" max="8"/>
-    <col width="22" customWidth="1" min="9" max="9"/>
-    <col width="22" customWidth="1" min="10" max="10"/>
-    <col width="17" customWidth="1" min="11" max="11"/>
-    <col width="18" customWidth="1" min="12" max="12"/>
-    <col width="23" customWidth="1" min="13" max="13"/>
-    <col width="20" customWidth="1" min="14" max="14"/>
-    <col width="19" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
-    <col width="22" customWidth="1" min="17" max="17"/>
-    <col width="24" customWidth="1" min="18" max="18"/>
-    <col width="21" customWidth="1" min="19" max="19"/>
-    <col width="32" customWidth="1" min="20" max="20"/>
-    <col width="32" customWidth="1" min="21" max="21"/>
-    <col width="35" customWidth="1" min="22" max="22"/>
-    <col width="31" customWidth="1" min="23" max="23"/>
-    <col width="35" customWidth="1" min="24" max="24"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="32.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Score</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Is Ransomware</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>has_suspicious_sections</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>has_high_entropy</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>has_suspicious_imports</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>has_large_code_section</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>has_ransom_strings</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>no_digital_signature</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>uses_encryption_apis</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>uses_other_apis</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>uses_crypto_dlls</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>uses_file_system_dlls</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>uses_internet_dlls</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>has_hardcoded_ips</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>has_hardcoded_urls</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>has_crypto_constants</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>has_hardcoded_commands</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>has_hardcoded_paths</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>uses_internet_access_functions</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>uses_file_operations_functions</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>uses_process_operations_functions</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>uses_anti_debugging_functions</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>uses_service_operations_functions</t>
-        </is>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>certificate.exe</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2">
         <v>16</v>
       </c>
       <c r="C2" t="b">
@@ -658,13 +706,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>notepad.exe</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
         <v>15</v>
       </c>
       <c r="C3" t="b">
@@ -734,13 +780,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>putty.exe</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4">
         <v>18</v>
       </c>
       <c r="C4" t="b">
@@ -810,13 +854,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>test.exe</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
         <v>12</v>
       </c>
       <c r="C5" t="b">
@@ -883,6 +925,286 @@
         <v>0</v>
       </c>
       <c r="X5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>2</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+      <c r="P9">
+        <v>2</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>0</v>
       </c>
     </row>
@@ -892,360 +1214,312 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1:R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="17" customWidth="1" min="1" max="1"/>
-    <col width="14" customWidth="1" min="2" max="2"/>
-    <col width="17" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-    <col width="15" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="16" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
-    <col width="20" customWidth="1" min="12" max="12"/>
-    <col width="17" customWidth="1" min="13" max="13"/>
-    <col width="27" customWidth="1" min="14" max="14"/>
-    <col width="27" customWidth="1" min="15" max="15"/>
-    <col width="30" customWidth="1" min="16" max="16"/>
-    <col width="26" customWidth="1" min="17" max="17"/>
-    <col width="30" customWidth="1" min="18" max="18"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ransom_words</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>encryption_apis</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>other_apis</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>crypto_dlls</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>file_system_dlls</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>internet_dlls</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>hardcoded_ips</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>hardcoded_urls</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>rsa_keys</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>aes_constants</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>hardcoded_commands</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>hardcoded_paths</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>internet_access_functions</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>file_operations_functions</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>process_operations_functions</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>anti_debugging_functions</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>service_operations_functions</t>
-        </is>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>certificate.exe</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>3</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>5</v>
       </c>
-      <c r="P2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" t="n">
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>notepad.exe</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>6</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>3</v>
       </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
         <v>4</v>
       </c>
-      <c r="P3" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R3" t="n">
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>putty.exe</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>8</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>4</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>4</v>
       </c>
-      <c r="P4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
         <v>3</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>0</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>test.exe</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>0</v>
       </c>
     </row>
